--- a/CFC-Forms.xlsx
+++ b/CFC-Forms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33340" windowHeight="22280" tabRatio="500"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="33340" windowHeight="22280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,51 +249,51 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,7 +575,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,43 +593,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J2" s="8"/>
@@ -637,21 +637,21 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="8"/>
@@ -659,42 +659,42 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="12" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
@@ -705,618 +705,604 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="10" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="12" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="16" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="17" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="16" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="17" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="18" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="18" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="18" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="18" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="18" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
@@ -1333,33 +1319,47 @@
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CFC-Forms.xlsx
+++ b/CFC-Forms.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jds/Desktop/CFC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jds/Desktop/cyber-forensics-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="33340" windowHeight="22280" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="33340" windowHeight="22280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Date:</t>
   </si>
@@ -153,13 +153,63 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Team Member 6:</t>
+  </si>
+  <si>
+    <t>Team Member 7:</t>
+  </si>
+  <si>
+    <t>Team Member 8:</t>
+  </si>
+  <si>
+    <t>20160912/1930CDT</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Major J Stauffer</t>
+  </si>
+  <si>
+    <t>Initial seizure</t>
+  </si>
+  <si>
+    <t>16-0001</t>
+  </si>
+  <si>
+    <t>Maxwell AFB</t>
+  </si>
+  <si>
+    <t>Major J. Stauffer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Red Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - advanced challenge deductables only</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +246,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -211,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -243,14 +298,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,41 +350,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,7 +697,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,48 +715,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="18" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="J2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -648,15 +772,17 @@
       <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="3" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="J3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -667,642 +793,672 @@
         <v>5</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
       <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="J4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="J5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="12" t="s">
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="12" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="12" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="13" t="s">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
+  <mergeCells count="79">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
@@ -1319,47 +1475,32 @@
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
